--- a/me/2.typescript/5.generic.xlsx
+++ b/me/2.typescript/5.generic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E69B6-00E5-4E8A-B848-B07DEAE91BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA3A5B-1D39-461E-86F1-D35AC7B85637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Method" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
   <si>
     <t>構成</t>
   </si>
@@ -190,6 +191,246 @@
   </si>
   <si>
     <t>T trong trường hợp này là boolean</t>
+  </si>
+  <si>
+    <t>02-method.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\06_generic\02-method.ts</t>
+  </si>
+  <si>
+    <t>class StudyGeneric {</t>
+  </si>
+  <si>
+    <t>        console.log(params);</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>02-method.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/06_generic/02-method.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\06_generic\02-method.js</t>
+  </si>
+  <si>
+    <t>    static printArray(params) {</t>
+  </si>
+  <si>
+    <t>StudyGeneric.printArray([1, 2, 3, 5]);</t>
+  </si>
+  <si>
+    <t>StudyGeneric.printArray(["a", "bc", "def"]);</t>
+  </si>
+  <si>
+    <t>StudyGeneric.printArray([1, 2, 3, 5, "a", false, "bc", "def", true]);</t>
+  </si>
+  <si>
+    <t>Generic trong function</t>
+  </si>
+  <si>
+    <t>Generic trong class(method của class)</t>
+  </si>
+  <si>
+    <r>
+      <t>StudyGeneric.printArray&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;([1, 2, 3, 5]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generic được truyền vào là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nên params truyền vào phải là 1 array chứa các con số</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>StudyGeneric.printArray&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(["a", "bc", "def"]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generic được truyền vào là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nên params truyền vào phải là 1 array chứa các giá trị string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>StudyGeneric.printArray&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;([1, 2, 3, 5, "a", false, "bc", "def", true]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generic được truyền vào là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nên params truyền vào là 1 array có thể chứa các giá trị number, string…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    static printArray&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;(params: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[]) : void {</t>
+    </r>
+  </si>
+  <si>
+    <t>T là ký tự tùy ý, có thể thay bằng các ký tự khác</t>
   </si>
 </sst>
 </file>
@@ -556,6 +797,320 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7706AB8A-0D62-9447-D954-8BDDED26A7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3019425" y="14649450"/>
+          <a:ext cx="390525" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465905</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7222B0EA-1C51-6FE5-FBD4-229CB5AE2866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7810500"/>
+          <a:ext cx="6561905" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C309C9-42C6-04ED-67E4-5A5F90BDEACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3076575" y="11791950"/>
+          <a:ext cx="381000" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A38D3BD-D460-BB8A-12FD-DC9F80E7B947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="8686800"/>
+          <a:ext cx="2114550" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF634EE-931C-E6F8-F493-63C782198B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2933700" y="15211425"/>
+          <a:ext cx="304800" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3227A0-DED4-3F8B-6020-DAF90C130095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2495550" y="6057900"/>
+          <a:ext cx="4714875" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -822,14 +1377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:J109"/>
+  <dimension ref="A2:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
@@ -1676,4 +2236,903 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5DD271-37B5-4812-B5A4-A6BDA490440A}">
+  <dimension ref="A2:J93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16"/>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="16"/>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="5"/>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="5"/>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="5"/>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" s="16"/>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.typescript/5.generic.xlsx
+++ b/me/2.typescript/5.generic.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA3A5B-1D39-461E-86F1-D35AC7B85637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F89AC5-F57C-473D-93D2-1C5A22256F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
     <sheet name="Method" sheetId="2" r:id="rId2"/>
+    <sheet name="Class" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="116">
   <si>
     <t>構成</t>
   </si>
@@ -431,6 +432,273 @@
   </si>
   <si>
     <t>T là ký tự tùy ý, có thể thay bằng các ký tự khác</t>
+  </si>
+  <si>
+    <t>03-class.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\06_generic\03-class.ts</t>
+  </si>
+  <si>
+    <t>// ID NAME PRICE    string string number</t>
+  </si>
+  <si>
+    <t>// ID NAME PRICE    number string string</t>
+  </si>
+  <si>
+    <t>// ID NAME PRICE    string number boolean</t>
+  </si>
+  <si>
+    <t>    id: A;</t>
+  </si>
+  <si>
+    <t>    name: B;</t>
+  </si>
+  <si>
+    <t>    price: C;</t>
+  </si>
+  <si>
+    <t>        this.id = id;</t>
+  </si>
+  <si>
+    <t>        this.name = name;</t>
+  </si>
+  <si>
+    <t>        this.price = price;</t>
+  </si>
+  <si>
+    <t>    showProductInfo(){</t>
+  </si>
+  <si>
+    <t>        console.log(`${this.id} - ${this.name} - ${this.price}`);</t>
+  </si>
+  <si>
+    <t>product1.showProductInfo();</t>
+  </si>
+  <si>
+    <t>product2.showProductInfo();</t>
+  </si>
+  <si>
+    <t>product3.showProductInfo();</t>
+  </si>
+  <si>
+    <t>03-class.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/06_generic/03-class.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\06_generic\03-class.js</t>
+  </si>
+  <si>
+    <t>class Product {</t>
+  </si>
+  <si>
+    <t>    constructor(id, name, price) {</t>
+  </si>
+  <si>
+    <t>    showProductInfo() {</t>
+  </si>
+  <si>
+    <t>let product1 = new Product("ID1", "Product 1", 20);</t>
+  </si>
+  <si>
+    <t>let product2 = new Product(12, "Product 2", "20 USD");</t>
+  </si>
+  <si>
+    <t>let product3 = new Product("12", 23, false);</t>
+  </si>
+  <si>
+    <t>Sử dụng Generic đối với việc khai báo các class</t>
+  </si>
+  <si>
+    <t>Class định nghĩa sản phẩm có id, name và price tuy nhiên các giá trị id, name và price này sẽ linh hoạt bị thay đổi</t>
+  </si>
+  <si>
+    <t>ID NAME PRICE    string string number</t>
+  </si>
+  <si>
+    <t>ID NAME PRICE    number string string</t>
+  </si>
+  <si>
+    <t>ID NAME PRICE    string number boolean</t>
+  </si>
+  <si>
+    <r>
+      <t>class Product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;A, B, C&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let product1 = new Product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;string, string, number&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("ID1", "Product 1", 20);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let product2 = new Product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;number, string, string&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12, "Product 2", "20 USD");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let product3 = new Product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;string, number, boolean&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("12", 23, false);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    constructor(id: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, price: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <t>Có 3 kiểu dữ liệu có thể thay đổiđó là id, name và price. Do đó lần lượt đặt là A, B, C</t>
+  </si>
+  <si>
+    <t>&lt;A, B, C&gt; = &lt;string, string, number&gt;</t>
+  </si>
+  <si>
+    <t>&lt;A, B, C&gt; = &lt;number, string, string&gt;</t>
+  </si>
+  <si>
+    <t>&lt;A, B, C&gt; = &lt;string, number, boolean&gt;</t>
   </si>
 </sst>
 </file>
@@ -1086,6 +1354,832 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2495550" y="6057900"/>
           <a:ext cx="4714875" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>41274</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D739BA1D-7EC0-FEA9-1840-E44075020F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="7353300"/>
+          <a:ext cx="4841874" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7643B759-AF93-E565-F815-C36AB8D0C325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="6800850"/>
+          <a:ext cx="4362450" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8102A0B2-FCCF-BBD4-75A9-12A62EF61E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="7000875"/>
+          <a:ext cx="4105275" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF85885-E468-4607-B935-1ACC4D802996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="7239000"/>
+          <a:ext cx="4048125" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4FEE8B-9B81-BD05-FA33-903ECEB90BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="6057900"/>
+          <a:ext cx="19050" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389718</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67045B5C-7FB2-CEE5-B87C-36D32C1211C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="11687175"/>
+          <a:ext cx="6457143" cy="838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF10959-6FF6-0392-F18F-035ED26B6CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2990850" y="15763875"/>
+          <a:ext cx="352425" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114A3383-80F1-5F76-9A4B-517950682ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="12563475"/>
+          <a:ext cx="2057400" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9A10EC-DF31-A19F-784A-D62BB60C27C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2686050" y="19373850"/>
+          <a:ext cx="171450" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0967FCB-4AC0-DB54-4992-36B638BE5A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="6829425"/>
+          <a:ext cx="171450" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9217C8D2-6DB1-1075-6B7E-3D17738D0ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="6829425"/>
+          <a:ext cx="4324350" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A1ECF8-32E8-7B9A-2068-AAF1F050050B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="6810375"/>
+          <a:ext cx="4229100" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>155679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749EB5E6-DFF9-E889-4948-386B294C64CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="10353675"/>
+          <a:ext cx="4714875" cy="1803504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37CD28E-9FC3-DA92-AAD5-660169867AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="10382250"/>
+          <a:ext cx="5276850" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1655437F-4DD1-E9E1-AEE4-017DD37CEA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="10610850"/>
+          <a:ext cx="5353050" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7EB638-79C4-ED59-7474-F8B8B3EE3C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="10782300"/>
+          <a:ext cx="5257800" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2242,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5DD271-37B5-4812-B5A4-A6BDA490440A}">
   <dimension ref="A2:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,15 +3714,15 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="5"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
       <c r="I36" t="s">
         <v>17</v>
       </c>
@@ -3135,4 +4229,1339 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8373D11E-1009-40E3-8EEA-9AA98AA51DE9}">
+  <dimension ref="A2:U126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16"/>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="16"/>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="5"/>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="5"/>
+      <c r="K37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="5"/>
+      <c r="K38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="5"/>
+      <c r="K39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="5"/>
+      <c r="K40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="5"/>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="5"/>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="5"/>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="16"/>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="19"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>